--- a/template/Hitachi_VSP/blank_HitachiVSP2チェックシート.xlsx
+++ b/template/Hitachi_VSP/blank_HitachiVSP2チェックシート.xlsx
@@ -2692,16 +2692,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="2" customWidth="1"/>
     <col min="2" max="8" width="16.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -3040,10 +3037,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3054,9 +3051,7 @@
     <col min="10" max="10" width="13.375" style="11" customWidth="1"/>
     <col min="11" max="11" width="28.125" style="11" customWidth="1"/>
     <col min="12" max="12" width="13.375" style="11" customWidth="1"/>
-    <col min="13" max="1023" width="9" style="11" customWidth="1"/>
-    <col min="1024" max="1024" width="9" style="2" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="2"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -3344,20 +3339,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" style="11" customWidth="1"/>
     <col min="2" max="4" width="17.875" style="11" customWidth="1"/>
     <col min="5" max="5" width="71.625" style="11" customWidth="1"/>
-    <col min="6" max="1025" width="9" style="11" customWidth="1"/>
-    <col min="1026" max="1026" width="9" style="2" customWidth="1"/>
-    <col min="1027" max="16384" width="9" style="2"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -3439,9 +3430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3452,8 +3441,7 @@
     <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="34.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3664,9 +3652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3674,9 +3660,7 @@
     <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="2" customWidth="1"/>
-    <col min="5" max="1007" width="8.75" style="2" customWidth="1"/>
-    <col min="1008" max="1008" width="9" style="2" customWidth="1"/>
-    <col min="1009" max="16384" width="9" style="2"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
